--- a/stock/data/SK스퀘어.xlsx
+++ b/stock/data/SK스퀘어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:G610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13716,10 +13716,769 @@
         <v>79000</v>
       </c>
       <c r="F577" t="n">
-        <v>193125</v>
+        <v>209727</v>
       </c>
       <c r="G577" t="n">
         <v>0.5089058524173028</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B578" t="n">
+        <v>79900</v>
+      </c>
+      <c r="C578" t="n">
+        <v>81600</v>
+      </c>
+      <c r="D578" t="n">
+        <v>75100</v>
+      </c>
+      <c r="E578" t="n">
+        <v>75500</v>
+      </c>
+      <c r="F578" t="n">
+        <v>421752</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-4.430379746835443</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B579" t="n">
+        <v>75100</v>
+      </c>
+      <c r="C579" t="n">
+        <v>77600</v>
+      </c>
+      <c r="D579" t="n">
+        <v>71500</v>
+      </c>
+      <c r="E579" t="n">
+        <v>77200</v>
+      </c>
+      <c r="F579" t="n">
+        <v>568844</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2.251655629139073</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B580" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C580" t="n">
+        <v>77700</v>
+      </c>
+      <c r="D580" t="n">
+        <v>74400</v>
+      </c>
+      <c r="E580" t="n">
+        <v>76500</v>
+      </c>
+      <c r="F580" t="n">
+        <v>354422</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-0.9067357512953367</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B581" t="n">
+        <v>77900</v>
+      </c>
+      <c r="C581" t="n">
+        <v>78200</v>
+      </c>
+      <c r="D581" t="n">
+        <v>75900</v>
+      </c>
+      <c r="E581" t="n">
+        <v>78000</v>
+      </c>
+      <c r="F581" t="n">
+        <v>404073</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1.96078431372549</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B582" t="n">
+        <v>75700</v>
+      </c>
+      <c r="C582" t="n">
+        <v>77100</v>
+      </c>
+      <c r="D582" t="n">
+        <v>73100</v>
+      </c>
+      <c r="E582" t="n">
+        <v>75500</v>
+      </c>
+      <c r="F582" t="n">
+        <v>391809</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-3.205128205128205</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B583" t="n">
+        <v>74800</v>
+      </c>
+      <c r="C583" t="n">
+        <v>76300</v>
+      </c>
+      <c r="D583" t="n">
+        <v>73700</v>
+      </c>
+      <c r="E583" t="n">
+        <v>73900</v>
+      </c>
+      <c r="F583" t="n">
+        <v>319864</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-2.119205298013245</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B584" t="n">
+        <v>74400</v>
+      </c>
+      <c r="C584" t="n">
+        <v>75000</v>
+      </c>
+      <c r="D584" t="n">
+        <v>72800</v>
+      </c>
+      <c r="E584" t="n">
+        <v>74100</v>
+      </c>
+      <c r="F584" t="n">
+        <v>310139</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.2706359945872801</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B585" t="n">
+        <v>71800</v>
+      </c>
+      <c r="C585" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D585" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E585" t="n">
+        <v>73100</v>
+      </c>
+      <c r="F585" t="n">
+        <v>501072</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-1.349527665317139</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B586" t="n">
+        <v>72700</v>
+      </c>
+      <c r="C586" t="n">
+        <v>79300</v>
+      </c>
+      <c r="D586" t="n">
+        <v>72300</v>
+      </c>
+      <c r="E586" t="n">
+        <v>77900</v>
+      </c>
+      <c r="F586" t="n">
+        <v>707851</v>
+      </c>
+      <c r="G586" t="n">
+        <v>6.566347469220246</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B587" t="n">
+        <v>77700</v>
+      </c>
+      <c r="C587" t="n">
+        <v>79900</v>
+      </c>
+      <c r="D587" t="n">
+        <v>76200</v>
+      </c>
+      <c r="E587" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F587" t="n">
+        <v>609187</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2.439024390243902</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B588" t="n">
+        <v>79300</v>
+      </c>
+      <c r="C588" t="n">
+        <v>82000</v>
+      </c>
+      <c r="D588" t="n">
+        <v>78900</v>
+      </c>
+      <c r="E588" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1121320</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.2506265664160401</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B589" t="n">
+        <v>80100</v>
+      </c>
+      <c r="C589" t="n">
+        <v>81100</v>
+      </c>
+      <c r="D589" t="n">
+        <v>78700</v>
+      </c>
+      <c r="E589" t="n">
+        <v>78800</v>
+      </c>
+      <c r="F589" t="n">
+        <v>462642</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B590" t="n">
+        <v>78800</v>
+      </c>
+      <c r="C590" t="n">
+        <v>83900</v>
+      </c>
+      <c r="D590" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E590" t="n">
+        <v>83700</v>
+      </c>
+      <c r="F590" t="n">
+        <v>568657</v>
+      </c>
+      <c r="G590" t="n">
+        <v>6.218274111675127</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B591" t="n">
+        <v>82000</v>
+      </c>
+      <c r="C591" t="n">
+        <v>83400</v>
+      </c>
+      <c r="D591" t="n">
+        <v>74900</v>
+      </c>
+      <c r="E591" t="n">
+        <v>76100</v>
+      </c>
+      <c r="F591" t="n">
+        <v>732716</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-9.08004778972521</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B592" t="n">
+        <v>77100</v>
+      </c>
+      <c r="C592" t="n">
+        <v>81500</v>
+      </c>
+      <c r="D592" t="n">
+        <v>75600</v>
+      </c>
+      <c r="E592" t="n">
+        <v>79700</v>
+      </c>
+      <c r="F592" t="n">
+        <v>553461</v>
+      </c>
+      <c r="G592" t="n">
+        <v>4.730617608409987</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B593" t="n">
+        <v>80100</v>
+      </c>
+      <c r="C593" t="n">
+        <v>82900</v>
+      </c>
+      <c r="D593" t="n">
+        <v>79700</v>
+      </c>
+      <c r="E593" t="n">
+        <v>82600</v>
+      </c>
+      <c r="F593" t="n">
+        <v>668442</v>
+      </c>
+      <c r="G593" t="n">
+        <v>3.638644918444166</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B594" t="n">
+        <v>83400</v>
+      </c>
+      <c r="C594" t="n">
+        <v>86500</v>
+      </c>
+      <c r="D594" t="n">
+        <v>82600</v>
+      </c>
+      <c r="E594" t="n">
+        <v>85500</v>
+      </c>
+      <c r="F594" t="n">
+        <v>665650</v>
+      </c>
+      <c r="G594" t="n">
+        <v>3.510895883777239</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B595" t="n">
+        <v>82700</v>
+      </c>
+      <c r="C595" t="n">
+        <v>85500</v>
+      </c>
+      <c r="D595" t="n">
+        <v>77400</v>
+      </c>
+      <c r="E595" t="n">
+        <v>77800</v>
+      </c>
+      <c r="F595" t="n">
+        <v>986781</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-9.005847953216374</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B596" t="n">
+        <v>78900</v>
+      </c>
+      <c r="C596" t="n">
+        <v>81600</v>
+      </c>
+      <c r="D596" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E596" t="n">
+        <v>80600</v>
+      </c>
+      <c r="F596" t="n">
+        <v>241688</v>
+      </c>
+      <c r="G596" t="n">
+        <v>3.598971722365039</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B597" t="n">
+        <v>81500</v>
+      </c>
+      <c r="C597" t="n">
+        <v>82500</v>
+      </c>
+      <c r="D597" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E597" t="n">
+        <v>78800</v>
+      </c>
+      <c r="F597" t="n">
+        <v>242909</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-2.233250620347394</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B598" t="n">
+        <v>78300</v>
+      </c>
+      <c r="C598" t="n">
+        <v>79100</v>
+      </c>
+      <c r="D598" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E598" t="n">
+        <v>76500</v>
+      </c>
+      <c r="F598" t="n">
+        <v>411298</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-2.918781725888325</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B599" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C599" t="n">
+        <v>76100</v>
+      </c>
+      <c r="D599" t="n">
+        <v>73400</v>
+      </c>
+      <c r="E599" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F599" t="n">
+        <v>398668</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-1.96078431372549</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B600" t="n">
+        <v>76000</v>
+      </c>
+      <c r="C600" t="n">
+        <v>76400</v>
+      </c>
+      <c r="D600" t="n">
+        <v>74400</v>
+      </c>
+      <c r="E600" t="n">
+        <v>74800</v>
+      </c>
+      <c r="F600" t="n">
+        <v>201674</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B601" t="n">
+        <v>76300</v>
+      </c>
+      <c r="C601" t="n">
+        <v>79700</v>
+      </c>
+      <c r="D601" t="n">
+        <v>75500</v>
+      </c>
+      <c r="E601" t="n">
+        <v>76900</v>
+      </c>
+      <c r="F601" t="n">
+        <v>387282</v>
+      </c>
+      <c r="G601" t="n">
+        <v>2.807486631016043</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B602" t="n">
+        <v>78300</v>
+      </c>
+      <c r="C602" t="n">
+        <v>79500</v>
+      </c>
+      <c r="D602" t="n">
+        <v>77300</v>
+      </c>
+      <c r="E602" t="n">
+        <v>78600</v>
+      </c>
+      <c r="F602" t="n">
+        <v>237427</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2.210663198959688</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B603" t="n">
+        <v>78500</v>
+      </c>
+      <c r="C603" t="n">
+        <v>79400</v>
+      </c>
+      <c r="D603" t="n">
+        <v>77300</v>
+      </c>
+      <c r="E603" t="n">
+        <v>78100</v>
+      </c>
+      <c r="F603" t="n">
+        <v>223962</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-0.6361323155216284</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B604" t="n">
+        <v>79600</v>
+      </c>
+      <c r="C604" t="n">
+        <v>81900</v>
+      </c>
+      <c r="D604" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E604" t="n">
+        <v>80400</v>
+      </c>
+      <c r="F604" t="n">
+        <v>244707</v>
+      </c>
+      <c r="G604" t="n">
+        <v>2.9449423815621</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B605" t="n">
+        <v>80400</v>
+      </c>
+      <c r="C605" t="n">
+        <v>83000</v>
+      </c>
+      <c r="D605" t="n">
+        <v>80400</v>
+      </c>
+      <c r="E605" t="n">
+        <v>82900</v>
+      </c>
+      <c r="F605" t="n">
+        <v>262893</v>
+      </c>
+      <c r="G605" t="n">
+        <v>3.109452736318408</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B606" t="n">
+        <v>81700</v>
+      </c>
+      <c r="C606" t="n">
+        <v>82300</v>
+      </c>
+      <c r="D606" t="n">
+        <v>78700</v>
+      </c>
+      <c r="E606" t="n">
+        <v>79000</v>
+      </c>
+      <c r="F606" t="n">
+        <v>252588</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-4.704463208685163</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B607" t="n">
+        <v>80500</v>
+      </c>
+      <c r="C607" t="n">
+        <v>82200</v>
+      </c>
+      <c r="D607" t="n">
+        <v>80300</v>
+      </c>
+      <c r="E607" t="n">
+        <v>80900</v>
+      </c>
+      <c r="F607" t="n">
+        <v>393954</v>
+      </c>
+      <c r="G607" t="n">
+        <v>2.40506329113924</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B608" t="n">
+        <v>81800</v>
+      </c>
+      <c r="C608" t="n">
+        <v>83800</v>
+      </c>
+      <c r="D608" t="n">
+        <v>81600</v>
+      </c>
+      <c r="E608" t="n">
+        <v>82300</v>
+      </c>
+      <c r="F608" t="n">
+        <v>376538</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.73053152039555</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B609" t="n">
+        <v>83600</v>
+      </c>
+      <c r="C609" t="n">
+        <v>84500</v>
+      </c>
+      <c r="D609" t="n">
+        <v>80500</v>
+      </c>
+      <c r="E609" t="n">
+        <v>80800</v>
+      </c>
+      <c r="F609" t="n">
+        <v>380155</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-1.822600243013366</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B610" t="n">
+        <v>80900</v>
+      </c>
+      <c r="C610" t="n">
+        <v>82900</v>
+      </c>
+      <c r="D610" t="n">
+        <v>80100</v>
+      </c>
+      <c r="E610" t="n">
+        <v>81800</v>
+      </c>
+      <c r="F610" t="n">
+        <v>420437</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.237623762376238</v>
       </c>
     </row>
   </sheetData>
